--- a/excel/var 1.xlsx
+++ b/excel/var 1.xlsx
@@ -5,67 +5,81 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="281" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>{Contains}</t>
-  </si>
-  <si>
-    <t>begins %with</t>
-  </si>
-  <si>
-    <t>begins [with]</t>
-  </si>
-  <si>
-    <t>begins with</t>
-  </si>
-  <si>
-    <t>ends with</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>contains</t>
-  </si>
-  <si>
-    <t>Source + target</t>
-  </si>
-  <si>
-    <t>contains{Contains}{1}{_}2$3</t>
-  </si>
-  <si>
-    <t>contains{Contains}{1}{_}2$4</t>
-  </si>
-  <si>
-    <t>contains{Contains}{1}{_}2$5</t>
-  </si>
-  <si>
-    <t>contains{Contains}{1}{_}2$6</t>
-  </si>
-  <si>
-    <t>contains{Contains}{1}{_}2$7</t>
-  </si>
-  <si>
-    <t>contains{Contains}{1}{_}2$8</t>
-  </si>
-  <si>
-    <t>contains{Contains}{1}{_}2$9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{Contains}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begins %with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begins [with]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begins with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ends with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source + target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains{Contains}{1}{_}2$3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains{Contains}{1}{_}2$4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains{Contains}{1}{_}2$5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains{Contains}{1}{_}2$6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains{Contains}{1}{_}2$7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains{Contains}{1}{_}2$8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contains{Contains}{1}{_}2$9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is 4 one A 76 match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is 2 one A 76 match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is 2 one A 15 match</t>
   </si>
 </sst>
 </file>
@@ -73,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -140,9 +154,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -162,18 +180,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25:A31"/>
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,6 +440,22 @@
       </c>
       <c r="B31" s="0" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
